--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\PCiCDTdtTDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/pcicdtdttdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FA711-24F9-BA43-B06E-BF1324A7D8A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="21080" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,18 @@
     <sheet name="Calcs" sheetId="5" r:id="rId4"/>
     <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -266,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -343,7 +355,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,12 +373,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -403,7 +416,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -447,7 +466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -496,7 +521,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -604,6 +635,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -639,6 +687,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,19 +879,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,174 +902,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1009,41 +1077,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1176,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1151,38 +1219,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1272,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1294,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1258,24 +1326,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1401,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1365,7 +1433,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1397,12 +1465,12 @@
         <v>-0.15257731958762888</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1501,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1450,7 +1518,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1476,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1484,15 +1552,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1502,7 +1570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1595,7 @@
         <v>-0.17518248175182483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1620,7 @@
         <v>0.12686567164179105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
